--- a/Moose Development/Maths/Scoring.xlsx
+++ b/Moose Development/Maths/Scoring.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\svenv\Documents\GitHub\MOOSE\Moose Development\Maths\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -432,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -444,48 +440,48 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>ROUNDUP((C$3/$B5)/10*$B$4,0)</f>
+        <f t="shared" ref="C5:M6" si="1">ROUNDUP((C$3/$B5)/10*$B$4,0)</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>ROUNDUP((D$3/$B5)/10*$B$4,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="E5">
-        <f>ROUNDUP((E$3/$B5)/10*$B$4,0)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="F5">
-        <f>ROUNDUP((F$3/$B5)/10*$B$4,0)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="G5">
-        <f>ROUNDUP((G$3/$B5)/10*$B$4,0)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="H5">
-        <f>ROUNDUP((H$3/$B5)/10*$B$4,0)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="I5">
-        <f>ROUNDUP((I$3/$B5)/10*$B$4,0)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="J5">
-        <f>ROUNDUP((J$3/$B5)/10*$B$4,0)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="K5">
-        <f>ROUNDUP((K$3/$B5)/10*$B$4,0)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="L5">
-        <f>ROUNDUP((L$3/$B5)/10*$B$4,0)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="M5">
-        <f>ROUNDUP((M$3/$B5)/10*$B$4,0)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -497,48 +493,48 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C6">
-        <f>ROUNDUP((C$3/$B6)/10*$B$4,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>ROUNDUP((D$3/$B6)/10*$B$4,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="E6">
-        <f>ROUNDUP((E$3/$B6)/10*$B$4,0)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="F6">
-        <f>ROUNDUP((F$3/$B6)/10*$B$4,0)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="G6">
-        <f>ROUNDUP((G$3/$B6)/10*$B$4,0)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="H6">
-        <f>ROUNDUP((H$3/$B6)/10*$B$4,0)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="I6">
-        <f>ROUNDUP((I$3/$B6)/10*$B$4,0)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="J6">
-        <f>ROUNDUP((J$3/$B6)/10*$B$4,0)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="K6">
-        <f>ROUNDUP((K$3/$B6)/10*$B$4,0)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="L6">
-        <f>ROUNDUP((L$3/$B6)/10*$B$4,0)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="M6">
-        <f>ROUNDUP((M$3/$B6)/10*$B$4,0)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -550,48 +546,48 @@
         <v>1.2</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C15" si="1">ROUNDUP((C$3/$B7)/10*$B$4,0)</f>
+        <f t="shared" ref="C7:C15" si="2">ROUNDUP((C$3/$B7)/10*$B$4,0)</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:M15" si="2">ROUNDUP((D$3/$B7)/10*$B$4,0)</f>
-        <v>1</v>
+        <f t="shared" ref="D7:M15" si="3">ROUNDUP((D$3/$B7)/10*$B$4,0)</f>
+        <v>3</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -603,48 +599,48 @@
         <v>1.3</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -656,48 +652,48 @@
         <v>1.4</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -709,48 +705,48 @@
         <v>1.5</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -762,48 +758,48 @@
         <v>1.6</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -815,48 +811,48 @@
         <v>1.7</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -868,48 +864,48 @@
         <v>1.8</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -921,48 +917,48 @@
         <v>1.9</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -974,48 +970,48 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
